--- a/biology/Botanique/Graptopetalum_bellum/Graptopetalum_bellum.xlsx
+++ b/biology/Botanique/Graptopetalum_bellum/Graptopetalum_bellum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Graptopetalum bellum est une espèce de plantes succulentes de la famille des Crassulaceae.
 Synonyme :
-Tacitus bellus Moran &amp; J.Meyrán - Certains auteurs acceptent encore ce nom. Cependant, les travaux récents[1] acceptent généralement Graptopetalum bellum (Moran &amp; J. Meyrán) D.R. Hunt.
+Tacitus bellus Moran &amp; J.Meyrán - Certains auteurs acceptent encore ce nom. Cependant, les travaux récents acceptent généralement Graptopetalum bellum (Moran &amp; J. Meyrán) D.R. Hunt.
 L'espèce a été découverte en 1972 par Alfred Lau dans l'ouest du Mexique (États de Chihuahua et Sonora) vers 1 600 m d'altitude. Elle pousse dans des régions montagneuses avec une exposition au soleil modérée.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante succulente, persistante, légèrement buissonnante. Elle forme des rosettes plates et quasi horizontales jusqu'à 10 cm environ.
 Les feuilles sont glabres, triangulaires, de 25 mm environ, avec une couleur grise ou bronze.
@@ -549,7 +563,9 @@
           <t>Mode de culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture de Graptopetalum bellum est aisée, même si cette espèce supporte moins bien le plein soleil que les autres Crassulaceae.
 Comme pour toutes les plantes succulentes, le sol doit être léger et bien drainé. Apporter de l'engrais (pour cactus ou plantes succulentes) en période de croissance seulement et en divisant par deux les doses indiquées.
